--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Desktop\Facultate\VVSS\02_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A7775-1DAE-473F-96FF-A1039FFB5FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1277C8E0-CF2D-499D-844C-9A23E1A6D318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>Schiopu Adrian, Tcaciuc Andrea, Serpe Vlad</t>
   </si>
   <si>
-    <t>lipsesc try-catch in anumite sectiuni de cod</t>
-  </si>
-  <si>
     <t>C08</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>Product/60</t>
+  </si>
+  <si>
+    <t>lipsa clase exceptii</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +533,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -575,15 +581,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,7 +890,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
@@ -914,19 +911,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -950,10 +947,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -968,10 +965,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -987,19 +984,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1212,7 +1209,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1233,19 +1230,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1269,10 +1266,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1287,10 +1284,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1306,19 +1303,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1375,7 +1372,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1555,19 +1552,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1591,10 +1588,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1609,10 +1606,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1628,19 +1625,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1661,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1676,13 +1673,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1691,13 +1688,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1892,7 +1889,7 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
@@ -1901,7 +1898,7 @@
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="6"/>
@@ -1914,19 +1911,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1950,8 +1947,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1966,10 +1963,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1985,10 +1982,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2009,13 +2006,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="38">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="24" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2026,11 +2023,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="38">
+      <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2044,14 +2041,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="38">
+      <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2062,11 +2059,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="38">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2080,11 +2077,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="38">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2098,171 +2095,171 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="38">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="38">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="38">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="38">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="38">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="38">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="38">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="38">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="38">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="38">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38">
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="38">
+      <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="38">
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="39"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="38">
+      <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="38">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="39"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="18"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.3">
